--- a/ну эксель.xlsx
+++ b/ну эксель.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,17 +48,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +104,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +349,696 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>A2*B1</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>A2*C1</f>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2" si="0">C2*D1</f>
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2" si="1">C2*E1</f>
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2" si="2">E2*F1</f>
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2" si="3">E2*G1</f>
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2" si="4">G2*H1</f>
+        <v>1680</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2" si="5">G2*I1</f>
+        <v>1890</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2" si="6">I2*J1</f>
+        <v>18900</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2" si="7">I2*K1</f>
+        <v>20790</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2" si="8">K2*L1</f>
+        <v>249480</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="9">K2*M1</f>
+        <v>270270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="10">A3*B2</f>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="11">A3*C2</f>
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="12">C3*D2</f>
+        <v>432</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="13">C3*E2</f>
+        <v>540</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="14">E3*F2</f>
+        <v>97200</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="15">E3*G2</f>
+        <v>113400</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="16">G3*H2</f>
+        <v>190512000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="17">G3*I2</f>
+        <v>214326000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="18">I3*J2</f>
+        <v>4050761400000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="19">I3*K2</f>
+        <v>4455837540000</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="20">K3*L2</f>
+        <v>1.1116423494792E+18</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="21">K3*M2</f>
+        <v>1.2042792119358001E+18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="12"/>
+        <v>31104</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="13"/>
+        <v>38880</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="14"/>
+        <v>3779136000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="15"/>
+        <v>4408992000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="16"/>
+        <v>8.39965883904E+17</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="17"/>
+        <v>9.44961619392E+17</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="18"/>
+        <v>3.8278140523146052E+30</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="19"/>
+        <v>4.2105954575460658E+30</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="20"/>
+        <v>4.6806762271329555E+48</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="21"/>
+        <v>5.0707325793940356E+48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="12"/>
+        <v>11197440</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="13"/>
+        <v>13996800</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="14"/>
+        <v>5.28958107648E+16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="15"/>
+        <v>6.17117792256E+16</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="16"/>
+        <v>5.1835789184519605E+34</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="17"/>
+        <v>5.8315262832584559E+34</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="18"/>
+        <v>2.2321998253498676E+65</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="19"/>
+        <v>2.4554198078848548E+65</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="20"/>
+        <v>1.1493025122398009E+114</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="21"/>
+        <v>1.2450777215931177E+114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="10"/>
+        <v>1440</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="11"/>
+        <v>2160</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="12"/>
+        <v>24186470400</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="13"/>
+        <v>30233088000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="14"/>
+        <v>1.5992037016835457E+27</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="15"/>
+        <v>1.8657376519641365E+27</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="16"/>
+        <v>9.6711983600833594E+61</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="17"/>
+        <v>1.088009815509378E+62</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="18"/>
+        <v>2.4286553201589752E+127</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="19"/>
+        <v>2.6715208521748732E+127</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="20"/>
+        <v>3.0703856269055959E+241</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="21"/>
+        <v>3.3262510958143955E+241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="10"/>
+        <v>10080</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="11"/>
+        <v>15120</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="12"/>
+        <v>365699432448000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="13"/>
+        <v>457124290560000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="14"/>
+        <v>7.3103485759301663E+41</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="15"/>
+        <v>8.5287400052518614E+41</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="16"/>
+        <v>8.2483136352369143E+103</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="17"/>
+        <v>9.279352839641529E+103</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="18"/>
+        <v>2.2536349641627693E+231</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="19"/>
+        <v>2.4789984605790469E+231</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M7" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="10"/>
+        <v>80640</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="11"/>
+        <v>120960</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="12"/>
+        <v>4.423500334891008E+19</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="13"/>
+        <v>5.52937541861376E+19</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="14"/>
+        <v>4.0421661717246368E+61</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="15"/>
+        <v>4.7158605336787433E+61</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="16"/>
+        <v>3.8897896741818007E+165</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="17"/>
+        <v>4.3760133834545266E+165</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="10"/>
+        <v>725760</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="11"/>
+        <v>1088640</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="12"/>
+        <v>4.8155994045757465E+25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="13"/>
+        <v>6.019499255719684E+25</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="14"/>
+        <v>2.4331816262191736E+87</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="15"/>
+        <v>2.8387118972557028E+87</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="16"/>
+        <v>1.1041992225922262E+253</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="17"/>
+        <v>1.2422241254162546E+253</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="10"/>
+        <v>7257600</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="11"/>
+        <v>10886400</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="12"/>
+        <v>5.2424541357973408E+32</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="13"/>
+        <v>6.5530676697466765E+32</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="14"/>
+        <v>1.5944803849398508E+120</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="15"/>
+        <v>1.8602271157631596E+120</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="10"/>
+        <v>79833600</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="11"/>
+        <v>119750400</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="12"/>
+        <v>6.2778597974338588E+40</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="13"/>
+        <v>7.8473247467923238E+40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="14"/>
+        <v>1.2512405383013442E+161</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="15"/>
+        <v>1.4597806280182351E+161</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M11" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="10"/>
+        <v>958003200</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="11"/>
+        <v>1437004800</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="12"/>
+        <v>9.0213146626394826E+49</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="13"/>
+        <v>1.1276643328299353E+50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="14"/>
+        <v>1.4109793268333544E+211</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="15"/>
+        <v>1.646142547972247E+211</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="10"/>
+        <v>12454041600</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="11"/>
+        <v>18681062400</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="12"/>
+        <v>1.6852774214280311E+60</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="13"/>
+        <v>2.1065967767850389E+60</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="14"/>
+        <v>2.9723645020174681E+271</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="15"/>
+        <v>3.4677585856870466E+271</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>